--- a/0_Auxiliary_files/MAESTER_colors.xlsx
+++ b/0_Auxiliary_files/MAESTER_colors.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Maester/AnalysisPeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE365E0-1EE4-464A-96C8-2D04E8C6C58C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA956DDD-DEBC-394B-9D91-F37791F38C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{BA969524-A657-654B-876F-EEF4C1226972}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{BA969524-A657-654B-876F-EEF4C1226972}"/>
   </bookViews>
   <sheets>
     <sheet name="MAESTER" sheetId="5" r:id="rId1"/>
+    <sheet name="heat" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="245">
   <si>
     <t>HSC</t>
   </si>
@@ -84,9 +85,6 @@
     <t>Black</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
     <t>Aquamarine</t>
   </si>
   <si>
@@ -111,12 +109,6 @@
     <t>#5f9ea0</t>
   </si>
   <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
-    <t>#d2691e</t>
-  </si>
-  <si>
     <t>CornflowerBlue</t>
   </si>
   <si>
@@ -135,9 +127,6 @@
     <t>#008b8b</t>
   </si>
   <si>
-    <t>DarkKhaki</t>
-  </si>
-  <si>
     <t>#bdb76b</t>
   </si>
   <si>
@@ -153,18 +142,9 @@
     <t>#8b0000</t>
   </si>
   <si>
-    <t>DarkSalmon</t>
-  </si>
-  <si>
     <t>#e9967a</t>
   </si>
   <si>
-    <t>DarkSeaGreen</t>
-  </si>
-  <si>
-    <t>#8fbc8f</t>
-  </si>
-  <si>
     <t>DarkSlateBlue</t>
   </si>
   <si>
@@ -297,9 +277,6 @@
     <t>#ee82ee</t>
   </si>
   <si>
-    <t>#ffff00</t>
-  </si>
-  <si>
     <t>EarlyE</t>
   </si>
   <si>
@@ -376,13 +353,430 @@
   </si>
   <si>
     <t>2241_A&gt;G</t>
+  </si>
+  <si>
+    <t>#083160</t>
+  </si>
+  <si>
+    <t>#2668aa</t>
+  </si>
+  <si>
+    <t>#4794c1</t>
+  </si>
+  <si>
+    <t>#94c5dd</t>
+  </si>
+  <si>
+    <t>#d2e5ef</t>
+  </si>
+  <si>
+    <t>#f7f7f7</t>
+  </si>
+  <si>
+    <t>#fcdbc8</t>
+  </si>
+  <si>
+    <t>#f2a585</t>
+  </si>
+  <si>
+    <t>#d46151</t>
+  </si>
+  <si>
+    <t>#b01b2f</t>
+  </si>
+  <si>
+    <t>#660220</t>
+  </si>
+  <si>
+    <t>Yellow1</t>
+  </si>
+  <si>
+    <t>#e3cc32</t>
+  </si>
+  <si>
+    <t>#ffc0cb</t>
+  </si>
+  <si>
+    <t>#ffa07a</t>
+  </si>
+  <si>
+    <t>#40e0d0</t>
+  </si>
+  <si>
+    <t>#00ffff</t>
+  </si>
+  <si>
+    <t>#9400d3</t>
+  </si>
+  <si>
+    <t>#008000</t>
+  </si>
+  <si>
+    <t>#ffebcd</t>
+  </si>
+  <si>
+    <t>#00fa9a</t>
+  </si>
+  <si>
+    <t>CASSQAGAANTEAFF</t>
+  </si>
+  <si>
+    <t>#20b2aa</t>
+  </si>
+  <si>
+    <t>CASSLVEEKLFF</t>
+  </si>
+  <si>
+    <t>CASSQVGHSADTQYF</t>
+  </si>
+  <si>
+    <t>#9acd32</t>
+  </si>
+  <si>
+    <t>CASSFRQGYNEQFF</t>
+  </si>
+  <si>
+    <t>CASSPFEETQYF</t>
+  </si>
+  <si>
+    <t>CASIPGPGTSGYNEQFF</t>
+  </si>
+  <si>
+    <t>CASSLTGGSYNEQFF</t>
+  </si>
+  <si>
+    <t>CASSATRAETQYF</t>
+  </si>
+  <si>
+    <t>CASSLEWGNPSTYEQYF</t>
+  </si>
+  <si>
+    <t>CASSPGFGKLFF</t>
+  </si>
+  <si>
+    <t>CASSFRLATDTQYF</t>
+  </si>
+  <si>
+    <t>#f0fff0</t>
+  </si>
+  <si>
+    <t>CASGILGTQYF</t>
+  </si>
+  <si>
+    <t>#c0c0c0</t>
+  </si>
+  <si>
+    <t>CASSSRDRGGLVPGELFF</t>
+  </si>
+  <si>
+    <t>CASAPNFGQELTYEQYF</t>
+  </si>
+  <si>
+    <t>CASSRYRGGTEAFF</t>
+  </si>
+  <si>
+    <t>CATPGSLNYGYTF</t>
+  </si>
+  <si>
+    <t>#d2b48c</t>
+  </si>
+  <si>
+    <t>CSVEDLGMDSPSYNEQFF</t>
+  </si>
+  <si>
+    <t>CASSYPLWGGARQPQHF</t>
+  </si>
+  <si>
+    <t>#ff7f50</t>
+  </si>
+  <si>
+    <t>CATSGGWGGETQYF</t>
+  </si>
+  <si>
+    <t>CSARDIHTYNEQFF</t>
+  </si>
+  <si>
+    <t>#fff0f5</t>
+  </si>
+  <si>
+    <t>CASSLTSGDPTDTQYF</t>
+  </si>
+  <si>
+    <t>CASSLVSGEVNEKLFF</t>
+  </si>
+  <si>
+    <t>CASSLGGTVSYEQYF</t>
+  </si>
+  <si>
+    <t>CASSPGGNEQFF</t>
+  </si>
+  <si>
+    <t>CSVGTGGTNEKLFF</t>
+  </si>
+  <si>
+    <t>CASRRGSSEQFF</t>
+  </si>
+  <si>
+    <t>CASSLAWGAYEQYF</t>
+  </si>
+  <si>
+    <t>#dda0dd</t>
+  </si>
+  <si>
+    <t>CASSLYWTDTQYF</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+  </si>
+  <si>
+    <t>CASSQFPAPGPGEAQHF</t>
+  </si>
+  <si>
+    <t>#6a5acd</t>
+  </si>
+  <si>
+    <t>CASSLGWTENTGELFF</t>
+  </si>
+  <si>
+    <t>CSANPGQGVDEQYF</t>
+  </si>
+  <si>
+    <t>#f5deb3</t>
+  </si>
+  <si>
+    <t>CAAGTGDYKLSF</t>
+  </si>
+  <si>
+    <t>#b0e0e6</t>
+  </si>
+  <si>
+    <t>CAVNATNKLIFGT</t>
+  </si>
+  <si>
+    <t>CAYRRNNNNDMRF</t>
+  </si>
+  <si>
+    <t>CATDPPRGGGGADGLTF</t>
+  </si>
+  <si>
+    <t>CAENINDYKLSF</t>
+  </si>
+  <si>
+    <t>CAASIR*WGF</t>
+  </si>
+  <si>
+    <t>#9370db</t>
+  </si>
+  <si>
+    <t>CALARYNFNKFYF</t>
+  </si>
+  <si>
+    <t>CAATYF</t>
+  </si>
+  <si>
+    <t>CATDAAQGAQKLVF</t>
+  </si>
+  <si>
+    <t>#ff00ff</t>
+  </si>
+  <si>
+    <t>CGTDEVGGTSYGKLTF</t>
+  </si>
+  <si>
+    <t>#663399</t>
+  </si>
+  <si>
+    <t>CAVNRNYGGATNKLIF</t>
+  </si>
+  <si>
+    <t>CAVIPH*NSGYSTLTF</t>
+  </si>
+  <si>
+    <t>CAIGQGGSEKLVF</t>
+  </si>
+  <si>
+    <t>CIVRVEGQILL</t>
+  </si>
+  <si>
+    <t>CIVRGYAGGTSYGKLTF</t>
+  </si>
+  <si>
+    <t>CLVGAFRKHTSCL</t>
+  </si>
+  <si>
+    <t>CAESIRTYKYIF</t>
+  </si>
+  <si>
+    <t>#a9a9a9</t>
+  </si>
+  <si>
+    <t>CAFISGYALNF</t>
+  </si>
+  <si>
+    <t>CAMRNDYKLSF</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>CAVRPVGNQFYF</t>
+  </si>
+  <si>
+    <t>CAFMRIRSGGYQKVTF</t>
+  </si>
+  <si>
+    <t>CILREYDAGNMLTF</t>
+  </si>
+  <si>
+    <t>CAVGMDSNYQLIW</t>
+  </si>
+  <si>
+    <t>#d3d3d3</t>
+  </si>
+  <si>
+    <t>CATDARNSGGSNYKLTF</t>
+  </si>
+  <si>
+    <t>#b0c4de</t>
+  </si>
+  <si>
+    <t>LightSteelBlue</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>#00ff7f</t>
+  </si>
+  <si>
+    <t>SpringGreen</t>
+  </si>
+  <si>
+    <t>#2f4f4f</t>
+  </si>
+  <si>
+    <t>DarkSlateGray</t>
+  </si>
+  <si>
+    <t>#adff2f</t>
+  </si>
+  <si>
+    <t>GreenYellow</t>
+  </si>
+  <si>
+    <t>DarkViolet</t>
+  </si>
+  <si>
+    <t>MediumPurple</t>
+  </si>
+  <si>
+    <t>SlateBlue</t>
+  </si>
+  <si>
+    <t>#4b0082</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>MediumSpringGreen</t>
+  </si>
+  <si>
+    <t>PowderBlue</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>#708090</t>
+  </si>
+  <si>
+    <t>SlateGray</t>
+  </si>
+  <si>
+    <t>#556b2f</t>
+  </si>
+  <si>
+    <t>DarkOliveGreen</t>
+  </si>
+  <si>
+    <t>LightGrey</t>
+  </si>
+  <si>
+    <t>#fa8072</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>#008080</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central memory T cells 1       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central memory T cells 2       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early activated T cells        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effector Memory T cells        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effector T cells               </t>
+  </si>
+  <si>
+    <t>Hyperactivated Effector T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK cells                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proliferating lymphocyte  </t>
+  </si>
+  <si>
+    <t>#b22222</t>
+  </si>
+  <si>
+    <t>FireBrick</t>
+  </si>
+  <si>
+    <t>DodgerBlue</t>
+  </si>
+  <si>
+    <t>#1e90ff</t>
+  </si>
+  <si>
+    <t>#191970</t>
+  </si>
+  <si>
+    <t>MidnightBlue</t>
+  </si>
+  <si>
+    <t>#8b4513</t>
+  </si>
+  <si>
+    <t>SaddleBrown</t>
+  </si>
+  <si>
+    <t>LightSeaGreen</t>
+  </si>
+  <si>
+    <t>#3cb371</t>
+  </si>
+  <si>
+    <t>MediumSeaGreen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,8 +805,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,12 +851,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6495ED"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -499,12 +893,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF483D8B"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -637,7 +1025,313 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF083160"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2668AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4794C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94C5DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2E5EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDBC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2A585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD46151"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB01B2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660220"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3CC32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20B2AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA07A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2B48C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF0F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA0DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A5ACD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5DEB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0E0E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9370DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9400D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C4DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADFF2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B0082"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FA9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40E0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF708090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF556B2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB22222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E90FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF191970"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B4513"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3CB371"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -674,35 +1368,111 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,16 +1481,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF8C00"/>
-      <color rgb="FFDC143C"/>
-      <color rgb="FFEE82EE"/>
-      <color rgb="FFFFD700"/>
-      <color rgb="FFADFF2F"/>
-      <color rgb="FFBC8F8F"/>
-      <color rgb="FFDEB887"/>
-      <color rgb="FFD2B48C"/>
-      <color rgb="FFFFB6C1"/>
-      <color rgb="FF696969"/>
+      <color rgb="FF3CB371"/>
+      <color rgb="FF6A5ACD"/>
+      <color rgb="FF40E0D0"/>
+      <color rgb="FF1E90FF"/>
+      <color rgb="FF20B2AA"/>
+      <color rgb="FFB0E0E6"/>
+      <color rgb="FF8B4513"/>
+      <color rgb="FFDDA0DD"/>
+      <color rgb="FF191970"/>
+      <color rgb="FFFFA500"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1031,27 +1801,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBD2893-9933-2E49-8569-179DEB6BEE4F}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1067,399 +1837,1107 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="33" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="C44" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="112" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="59"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="60"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="110" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="61"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="62"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="64"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="65"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="87"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="66"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="67"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="104" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="104" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="68"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="69"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="70"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="71"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="72"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="74"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="78"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="80"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="81"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="108" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="49"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="C87" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="26" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="50"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="36" t="s">
+      <c r="C92" s="29"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="45"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="51"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="82"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="52"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="C101" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79BF8A1-32C2-F643-9ADA-053B69FD56CE}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>73</v>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
